--- a/utils/recordingExcel/XHX/XHX_RNP_Recording.xlsx
+++ b/utils/recordingExcel/XHX/XHX_RNP_Recording.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A0AFF2-9B40-461F-8B92-0B687313AB10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="true"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1210294A-4970-4294-B54B-22411DE5C14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="处理" sheetId="1" r:id="rId1"/>
     <sheet name="edit" sheetId="5" r:id="rId2"/>
     <sheet name="全部" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1251" uniqueCount="200">
   <si>
     <t>RNP_Noise</t>
   </si>
@@ -499,15 +499,9 @@
     <t>BLOCKPATH</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>paradigm</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>RNP_Noise</t>
   </si>
   <si>
@@ -517,118 +511,67 @@
     <t>datPath</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>SR_AP</t>
   </si>
   <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>SR_LFP</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>sitePos</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>6400</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>lfpExported</t>
+  </si>
+  <si>
+    <t>spkExported</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>recTech</t>
+  </si>
+  <si>
+    <t>NeuroPixel</t>
+  </si>
+  <si>
+    <t>chNum</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>badChannel</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
     <t>double</t>
   </si>
   <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>SR_LFP</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>sitePos</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>IC1</t>
-  </si>
-  <si>
-    <t>depth</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>6400</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>lfpExported</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>spkExported</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>recTech</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>NeuroPixel</t>
-  </si>
-  <si>
-    <t>chNum</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>badChannel</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>cf</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>dz</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
     <t>ks_ChSel</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>ks_ID</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>comments</t>
@@ -652,32 +595,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G:\Rat\Rat Neuropixels\Preferred temporal structure\DATA\TDT DATA\20241115randseq\Block-1</t>
-  </si>
-  <si>
-    <t>G:\Rat\Rat Neuropixels\Preferred temporal structure\DATA\TDT DATA\20241115randseq\Block-2</t>
-  </si>
-  <si>
-    <t>G:\Rat\Rat Neuropixels\Preferred temporal structure\DATA\TDT DATA\20241115randseq\Block-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RNP_Randseq2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G:\Rat\Rat Neuropixels\Preferred temporal structure\DATA\TDT DATA\20241115randseq\Block-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RNP_Randseq1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G:\Rat\Rat Neuropixels\Preferred temporal structure\DATA\TDT DATA\20241115randseq\Block-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RNP_ToneCF1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,34 +611,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G:\Rat\Rat Neuropixels\Preferred temporal structure\DATA\Neuroxpixels DATA\RatNPRandSeqXHX_20241115\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+    <t>AC1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G:\Rat\Rat Neuropixels\Preferred temporal structure\DATA\Neuroxpixels DATA\RatNPRandSeqXHX_20241115\Record Node 109\experiment2\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>D:\Lab members\XHX\Preferred temporal structure\DATA\TDT DATA\rat1\20241115randseq\Block-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G:\Rat\Rat Neuropixels\Preferred temporal structure\DATA\Neuroxpixels DATA\RatNPRandSeqXHX_20241115 (1)\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+    <t>D:\Lab members\XHX\Preferred temporal structure\DATA\TDT DATA\rat1\20241115randseq\Block-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G:\Rat\Rat Neuropixels\Preferred temporal structure\DATA\Neuroxpixels DATA\RatNPRandSeqXHX_20241115 (1)\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA</t>
+    <t>D:\Lab members\XHX\Preferred temporal structure\DATA\TDT DATA\rat1\20241115randseq\Block-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G:\Rat\Rat Neuropixels\Preferred temporal structure\DATA\Neuroxpixels DATA\RatNPRandSeqXHX_20241115 (1)\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA</t>
+    <t>D:\Lab members\XHX\Preferred temporal structure\DATA\TDT DATA\rat1\20241115randseq\Block-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Lab members\XHX\Preferred temporal structure\DATA\TDT DATA\rat1\20241115randseq\Block-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Lab members\XHX\Preferred temporal structure\DATA\Neuropixels DATA\rat1\20241115\RatNPRandSeqXHX_20241115\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Lab members\XHX\Preferred temporal structure\DATA\Neuropixels DATA\rat1\20241115\RatNPRandSeqXHX_20241115\Record Node 109\experiment2\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Lab members\XHX\Preferred temporal structure\DATA\Neuropixels DATA\rat1\20241115\RatNPRandSeqXHX_20241115 (1)\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Lab members\XHX\Preferred temporal structure\DATA\Neuropixels DATA\rat1\20241115\RatNPRandSeqXHX_20241115 (1)\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Lab members\XHX\Preferred temporal structure\DATA\Neuropixels DATA\rat1\20241115\RatNPRandSeqXHX_20241115 (1)\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,7 +698,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -905,68 +857,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -985,7 +939,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1102,7 +1056,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1126,9 +1080,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1152,7 +1106,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1187,7 +1141,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1205,7 +1159,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1230,7 +1184,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1246,469 +1200,485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="true" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="90.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="182.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.88671875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" customWidth="1"/>
-    <col min="8" max="9" width="6.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="6.88671875" customWidth="1"/>
-    <col min="17" max="17" width="8" style="6" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" customWidth="1"/>
-    <col min="20" max="20" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="true"/>
+    <col min="2" max="2" width="86.21875" customWidth="true"/>
+    <col min="3" max="3" width="13.77734375" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="177.21875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="7" style="14" customWidth="true"/>
+    <col min="7" max="7" width="7" customWidth="true"/>
+    <col min="10" max="10" width="10.77734375" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="11.44140625" customWidth="true"/>
+    <col min="12" max="12" width="10.33203125" customWidth="true"/>
+    <col min="13" max="13" width="7.33203125" customWidth="true"/>
+    <col min="14" max="14" width="11.33203125" style="9" customWidth="true"/>
+    <col min="15" max="15" width="5.88671875" style="6" customWidth="true"/>
+    <col min="16" max="16" width="7" customWidth="true"/>
+    <col min="17" max="17" width="8.33203125" style="6" customWidth="true"/>
+    <col min="18" max="18" width="5.88671875" style="6" customWidth="true"/>
+    <col min="19" max="19" width="10" customWidth="true"/>
+    <col min="20" max="20" width="34.88671875" customWidth="true"/>
+    <col min="6" max="6" width="7" style="14" customWidth="true"/>
+    <col min="8" max="8" width="7" customWidth="true"/>
+    <col min="9" max="9" width="7" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="0" t="s">
         <v>151</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="O1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" ht="14.4" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A2" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="S1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>161</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K2" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>182</v>
-      </c>
       <c r="M2" s="15" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" s="41" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A3" s="40">
         <v>1</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="H3" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="42" t="s">
         <v>171</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>186</v>
       </c>
       <c r="N3" s="44"/>
       <c r="O3" s="45"/>
+      <c r="P3" s="41"/>
       <c r="Q3" s="45"/>
       <c r="R3" s="45"/>
-    </row>
-    <row r="4" spans="1:19" s="47" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="41"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" s="47" customFormat="true" ht="14.4" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A4" s="46">
         <v>1</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="H4" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" s="48" t="s">
         <v>171</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="J4" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="L4" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>186</v>
       </c>
       <c r="N4" s="50"/>
       <c r="O4" s="51"/>
+      <c r="P4" s="47"/>
       <c r="Q4" s="51"/>
       <c r="R4" s="51"/>
-    </row>
-    <row r="5" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="47"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" s="53" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
         <v>2</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="H5" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="M5" s="52" t="s">
         <v>171</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="52" t="s">
-        <v>9</v>
       </c>
       <c r="N5" s="55"/>
       <c r="O5" s="56"/>
+      <c r="P5" s="53"/>
       <c r="Q5" s="56"/>
       <c r="R5" s="56"/>
-    </row>
-    <row r="6" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="53"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" s="53" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A6" s="52">
         <v>2</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="H6" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="M6" s="52" t="s">
         <v>171</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="52" t="s">
-        <v>9</v>
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="56"/>
+      <c r="P6" s="53"/>
       <c r="Q6" s="56"/>
       <c r="R6" s="56"/>
-    </row>
-    <row r="7" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="53"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" s="53" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A7" s="52">
         <v>2</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="H7" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="M7" s="52" t="s">
         <v>171</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="52" t="s">
-        <v>9</v>
       </c>
       <c r="N7" s="55"/>
       <c r="O7" s="56"/>
+      <c r="P7" s="53"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="56"/>
-    </row>
-    <row r="8" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="53"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" s="53" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
         <v>2</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="H8" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="M8" s="52" t="s">
         <v>171</v>
-      </c>
-      <c r="I8" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="52" t="s">
-        <v>9</v>
       </c>
       <c r="N8" s="55"/>
       <c r="O8" s="56"/>
+      <c r="P8" s="53"/>
       <c r="Q8" s="56"/>
       <c r="R8" s="56"/>
-    </row>
-    <row r="9" spans="1:19" s="47" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S8" s="53"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" s="47" customFormat="true" ht="14.4" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A9" s="48">
         <v>2</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="H9" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="M9" s="48" t="s">
         <v>171</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="N9" s="50"/>
       <c r="O9" s="51"/>
+      <c r="P9" s="47"/>
       <c r="Q9" s="51"/>
       <c r="R9" s="51"/>
-    </row>
-    <row r="10" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="47"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" ht="21" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="C10" s="11"/>
       <c r="E10" s="37"/>
@@ -1721,7 +1691,7 @@
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
     </row>
-    <row r="11" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" ht="21" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="C11" s="11"/>
       <c r="E11" s="37"/>
@@ -1734,7 +1704,7 @@
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" ht="21" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="C12" s="11"/>
       <c r="E12" s="37"/>
@@ -1747,7 +1717,7 @@
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" ht="21" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="C13" s="11"/>
       <c r="E13" s="37"/>
@@ -1760,7 +1730,7 @@
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" ht="21" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="C14" s="11"/>
       <c r="E14" s="37"/>
@@ -1773,7 +1743,7 @@
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" ht="21" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="C15" s="11"/>
       <c r="E15" s="37"/>
@@ -1786,7 +1756,7 @@
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
     </row>
-    <row r="16" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A16" s="48"/>
       <c r="C16" s="11"/>
       <c r="E16" s="37"/>
@@ -1799,7 +1769,7 @@
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
     </row>
-    <row r="17" spans="1:18" s="41" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" s="41" customFormat="true" ht="21" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
       <c r="C17" s="42"/>
       <c r="E17" s="43"/>
@@ -1816,7 +1786,7 @@
       <c r="Q17" s="45"/>
       <c r="R17" s="45"/>
     </row>
-    <row r="18" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" s="53" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
       <c r="C18" s="52"/>
       <c r="E18" s="54"/>
@@ -1833,7 +1803,7 @@
       <c r="Q18" s="56"/>
       <c r="R18" s="56"/>
     </row>
-    <row r="19" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" s="53" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
       <c r="C19" s="52"/>
       <c r="E19" s="54"/>
@@ -1850,7 +1820,7 @@
       <c r="Q19" s="56"/>
       <c r="R19" s="56"/>
     </row>
-    <row r="20" spans="1:18" s="53" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" s="53" customFormat="true" ht="21" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
       <c r="C20" s="52"/>
       <c r="E20" s="54"/>
@@ -1867,7 +1837,7 @@
       <c r="Q20" s="56"/>
       <c r="R20" s="56"/>
     </row>
-    <row r="21" spans="1:18" s="53" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" s="53" customFormat="true" ht="21" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
       <c r="C21" s="52"/>
       <c r="E21" s="54"/>
@@ -1884,7 +1854,7 @@
       <c r="Q21" s="56"/>
       <c r="R21" s="56"/>
     </row>
-    <row r="22" spans="1:18" s="53" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" s="53" customFormat="true" ht="21" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A22" s="52"/>
       <c r="C22" s="52"/>
       <c r="E22" s="54"/>
@@ -1901,7 +1871,7 @@
       <c r="Q22" s="56"/>
       <c r="R22" s="56"/>
     </row>
-    <row r="23" spans="1:18" s="53" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" s="53" customFormat="true" ht="21" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
       <c r="C23" s="52"/>
       <c r="E23" s="54"/>
@@ -1918,7 +1888,7 @@
       <c r="Q23" s="56"/>
       <c r="R23" s="56"/>
     </row>
-    <row r="24" spans="1:18" s="53" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" s="53" customFormat="true" ht="21" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
       <c r="C24" s="52"/>
       <c r="E24" s="54"/>
@@ -1935,7 +1905,7 @@
       <c r="Q24" s="56"/>
       <c r="R24" s="56"/>
     </row>
-    <row r="25" spans="1:18" s="53" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" s="53" customFormat="true" ht="21" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
       <c r="C25" s="52"/>
       <c r="E25" s="54"/>
@@ -1952,7 +1922,7 @@
       <c r="Q25" s="56"/>
       <c r="R25" s="56"/>
     </row>
-    <row r="26" spans="1:18" s="53" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" s="53" customFormat="true" ht="21" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
       <c r="C26" s="52"/>
       <c r="E26" s="54"/>
@@ -1969,7 +1939,7 @@
       <c r="Q26" s="56"/>
       <c r="R26" s="56"/>
     </row>
-    <row r="27" spans="1:18" s="53" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" s="53" customFormat="true" ht="21" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
       <c r="C27" s="52"/>
       <c r="E27" s="54"/>
@@ -1986,7 +1956,7 @@
       <c r="Q27" s="56"/>
       <c r="R27" s="56"/>
     </row>
-    <row r="28" spans="1:18" s="47" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" s="47" customFormat="true" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A28" s="48"/>
       <c r="C28" s="48"/>
       <c r="E28" s="49"/>
@@ -2011,22 +1981,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6ABAE5-D142-4874-ADE3-F2E34145CF44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6ABAE5-D142-4874-ADE3-F2E34145CF44}">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="142.21875" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" customWidth="true"/>
+    <col min="3" max="3" width="20" customWidth="true"/>
+    <col min="4" max="4" width="142.21875" customWidth="true"/>
+    <col min="12" max="12" width="23.33203125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39">
         <v>1</v>
       </c>
@@ -2071,7 +2041,7 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.25">
       <c r="A2" s="39">
         <v>1</v>
       </c>
@@ -2116,7 +2086,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <v>1</v>
       </c>
@@ -2161,7 +2131,7 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>1</v>
       </c>
@@ -2203,7 +2173,7 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>1</v>
       </c>
@@ -2245,7 +2215,7 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>1</v>
       </c>
@@ -2287,7 +2257,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>1</v>
       </c>
@@ -2329,7 +2299,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" ht="18" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>1</v>
       </c>
@@ -2379,36 +2349,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1BE7F-73A6-48FB-BA45-796FFEBC3683}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1BE7F-73A6-48FB-BA45-796FFEBC3683}">
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="115" customWidth="1"/>
-    <col min="5" max="6" width="6.88671875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" customWidth="1"/>
-    <col min="8" max="9" width="6.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="6.88671875" customWidth="1"/>
-    <col min="17" max="17" width="8" style="6" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" customWidth="1"/>
-    <col min="20" max="20" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="true"/>
+    <col min="2" max="2" width="54.109375" customWidth="true"/>
+    <col min="3" max="3" width="19.109375" customWidth="true"/>
+    <col min="4" max="4" width="115" customWidth="true"/>
+    <col min="5" max="6" width="6.88671875" style="14" customWidth="true"/>
+    <col min="7" max="7" width="6.77734375" customWidth="true"/>
+    <col min="8" max="9" width="6.88671875" customWidth="true"/>
+    <col min="10" max="10" width="10.6640625" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="11.33203125" customWidth="true"/>
+    <col min="12" max="12" width="9.88671875" customWidth="true"/>
+    <col min="13" max="13" width="7" customWidth="true"/>
+    <col min="14" max="14" width="10.88671875" style="9" customWidth="true"/>
+    <col min="15" max="15" width="5.6640625" style="6" customWidth="true"/>
+    <col min="16" max="16" width="6.88671875" customWidth="true"/>
+    <col min="17" max="17" width="8" style="6" customWidth="true"/>
+    <col min="18" max="18" width="5.6640625" style="6" customWidth="true"/>
+    <col min="19" max="19" width="9.77734375" customWidth="true"/>
+    <col min="20" max="20" width="34.88671875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2467,7 +2437,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2526,7 +2496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" s="17" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -2571,7 +2541,7 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
     </row>
-    <row r="4" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" s="10" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -2616,7 +2586,7 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" s="10" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -2661,7 +2631,7 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" s="10" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -2706,7 +2676,7 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" s="10" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -2751,7 +2721,7 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="1:19" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" s="31" customFormat="true" ht="13.5" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>1</v>
       </c>
@@ -2796,7 +2766,7 @@
       <c r="Q8" s="33"/>
       <c r="R8" s="33"/>
     </row>
-    <row r="9" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" s="10" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -2841,7 +2811,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
     </row>
-    <row r="10" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" s="10" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>1</v>
       </c>
@@ -2886,7 +2856,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" s="10" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>1</v>
       </c>
@@ -2931,7 +2901,7 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" s="10" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>1</v>
       </c>
@@ -2976,7 +2946,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" s="10" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>1</v>
       </c>
@@ -3021,7 +2991,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="1:19" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" s="31" customFormat="true" ht="13.5" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>1</v>
       </c>
@@ -3066,7 +3036,7 @@
       <c r="Q14" s="33"/>
       <c r="R14" s="33"/>
     </row>
-    <row r="15" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" s="24" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>1</v>
       </c>
@@ -3111,7 +3081,7 @@
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>2</v>
       </c>
@@ -3152,7 +3122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>2</v>
       </c>
@@ -3193,7 +3163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>2</v>
       </c>
@@ -3234,7 +3204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>2</v>
       </c>
@@ -3275,7 +3245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>2</v>
       </c>
@@ -3316,7 +3286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>2</v>
       </c>
@@ -3357,7 +3327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>2</v>
       </c>
@@ -3398,7 +3368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>2</v>
       </c>
@@ -3439,7 +3409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>2</v>
       </c>
@@ -3480,7 +3450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>2</v>
       </c>
@@ -3521,7 +3491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" s="24" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>2</v>
       </c>
@@ -3566,7 +3536,7 @@
       <c r="Q26" s="25"/>
       <c r="R26" s="25"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>3</v>
       </c>
@@ -3610,7 +3580,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>3</v>
       </c>
@@ -3651,7 +3621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>3</v>
       </c>
@@ -3692,7 +3662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>3</v>
       </c>
@@ -3736,7 +3706,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>3</v>
       </c>
@@ -3777,7 +3747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>3</v>
       </c>
@@ -3818,7 +3788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>3</v>
       </c>
@@ -3859,7 +3829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="34" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>3</v>
       </c>
@@ -3900,7 +3870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="35" s="24" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>3</v>
       </c>
@@ -3945,7 +3915,7 @@
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="36" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>4</v>
       </c>
@@ -3989,7 +3959,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="37" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>4</v>
       </c>
@@ -4030,7 +4000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="38" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>4</v>
       </c>
@@ -4074,7 +4044,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="39" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>4</v>
       </c>
@@ -4115,7 +4085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="40" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>4</v>
       </c>
@@ -4159,7 +4129,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="41" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>4</v>
       </c>
@@ -4200,7 +4170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="42" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>4</v>
       </c>
@@ -4241,7 +4211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="43" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <v>4</v>
       </c>
